--- a/StructureDefinition-ext-R5-MessageHeader.destination.xlsx
+++ b/StructureDefinition-ext-R5-MessageHeader.destination.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -127,7 +127,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -409,7 +409,7 @@
     <t>Extension.extension.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Endpoint|0.0.1-snapshot-3|Endpoint|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Endpoint|Endpoint)
 </t>
   </si>
   <si>
@@ -482,7 +482,7 @@
     <t>Extension.extension:target.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Device|0.0.1-snapshot-3|Device|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Device|Device)
 </t>
   </si>
   <si>
@@ -517,7 +517,7 @@
     <t>Extension.extension:receiver.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|0.0.1-snapshot-3|Practitioner|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-PractitionerRole|0.0.1-snapshot-3|PractitionerRole|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|0.0.1-snapshot-3|Organization|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|Practitioner|http://hl7.org/fhir/5.0/StructureDefinition/profile-PractitionerRole|PractitionerRole|http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|Organization)
 </t>
   </si>
   <si>
